--- a/Results/NEW_periods/Breeding/Female/meta_analysis_treatment_vs_control.xlsx
+++ b/Results/NEW_periods/Breeding/Female/meta_analysis_treatment_vs_control.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,13 +394,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>42.54213204280186</v>
+        <v>42.54213354518064</v>
       </c>
       <c r="C3">
-        <v>64.9836022383422</v>
+        <v>64.98360952142842</v>
       </c>
       <c r="D3">
-        <v>95.16010401213114</v>
+        <v>95.16011944566623</v>
       </c>
     </row>
     <row r="4">
@@ -410,13 +410,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3134548042683287</v>
+        <v>0.3134547872257854</v>
       </c>
       <c r="C4">
-        <v>0.8059130457718727</v>
+        <v>0.8059130228725063</v>
       </c>
       <c r="D4">
-        <v>1.526837125814897</v>
+        <v>1.526837100606182</v>
       </c>
     </row>
     <row r="5">
@@ -426,13 +426,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5703668605842575</v>
+        <v>0.5703668455414779</v>
       </c>
       <c r="C5">
-        <v>0.9145572816911692</v>
+        <v>0.9145572694398032</v>
       </c>
       <c r="D5">
-        <v>1.258818667726029</v>
+        <v>1.258818658355301</v>
       </c>
     </row>
     <row r="6">
@@ -449,13 +449,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>20.22111169364717</v>
+        <v>20.22111161544328</v>
       </c>
       <c r="C7">
-        <v>25.53905752105465</v>
+        <v>25.53905710956621</v>
       </c>
       <c r="D7">
-        <v>31.82574436404019</v>
+        <v>31.82574352472265</v>
       </c>
     </row>
     <row r="8">
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1117121206433795</v>
+        <v>0.111712121023525</v>
       </c>
       <c r="C8">
-        <v>0.2542928842862444</v>
+        <v>0.2542928722656458</v>
       </c>
       <c r="D8">
-        <v>0.4545100019967895</v>
+        <v>0.4545099690195018</v>
       </c>
     </row>
     <row r="9">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.3392407177992739</v>
+        <v>0.3392407178687752</v>
       </c>
       <c r="C9">
-        <v>0.5118290472480701</v>
+        <v>0.5118290343848231</v>
       </c>
       <c r="D9">
-        <v>0.6842732265918863</v>
+        <v>0.6842732007438587</v>
       </c>
     </row>
     <row r="10">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>7.548230765514725</v>
+        <v>7.548231660743239</v>
       </c>
       <c r="C11">
-        <v>10.81096983883993</v>
+        <v>10.81097546473494</v>
       </c>
       <c r="D11">
-        <v>15.00460351188946</v>
+        <v>15.00461574004915</v>
       </c>
     </row>
     <row r="12">
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.2285995124431439</v>
+        <v>0.2285994735526786</v>
       </c>
       <c r="C12">
-        <v>0.5712571122378214</v>
+        <v>0.5712573783272646</v>
       </c>
       <c r="D12">
-        <v>1.06810493719415</v>
+        <v>1.068105752310871</v>
       </c>
     </row>
     <row r="13">
@@ -536,13 +536,68 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.4866542606590226</v>
+        <v>0.486654228821725</v>
       </c>
       <c r="C13">
-        <v>0.7693052392469807</v>
+        <v>0.7693054335271695</v>
       </c>
       <c r="D13">
-        <v>1.051937267512479</v>
+        <v>1.051937689563459</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Speed meta analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mean (km/day)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>3.625695495129722</v>
+      </c>
+      <c r="C15">
+        <v>4.367383454604379</v>
+      </c>
+      <c r="D15">
+        <v>5.212968018226442</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CoV² (RVAR)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.04546823585390327</v>
+      </c>
+      <c r="C16">
+        <v>0.1200519960437265</v>
+      </c>
+      <c r="D16">
+        <v>0.2302092668221222</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CoV  (RSTD)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.2174120584257805</v>
+      </c>
+      <c r="C17">
+        <v>0.3532761090516405</v>
+      </c>
+      <c r="D17">
+        <v>0.489205100840114</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,13 +649,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>32.79464616017219</v>
+        <v>32.79463319010795</v>
       </c>
       <c r="C3">
-        <v>42.00144278312092</v>
+        <v>42.00147592616612</v>
       </c>
       <c r="D3">
-        <v>52.98004297399673</v>
+        <v>52.98013858976994</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +665,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1210037516130049</v>
+        <v>0.1210038032932299</v>
       </c>
       <c r="C4">
-        <v>0.2799224645166656</v>
+        <v>0.2799244435321588</v>
       </c>
       <c r="D4">
-        <v>0.5043389009918164</v>
+        <v>0.5043441193402219</v>
       </c>
     </row>
     <row r="5">
@@ -626,13 +681,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3532360466693427</v>
+        <v>0.3532361919942047</v>
       </c>
       <c r="C5">
-        <v>0.5372599588199409</v>
+        <v>0.537261964299384</v>
       </c>
       <c r="D5">
-        <v>0.7211520323038594</v>
+        <v>0.7211559058305435</v>
       </c>
     </row>
     <row r="6">
@@ -649,13 +704,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>18.20460439095808</v>
+        <v>18.20460511584151</v>
       </c>
       <c r="C7">
-        <v>22.23120992211024</v>
+        <v>22.23121098640574</v>
       </c>
       <c r="D7">
-        <v>26.87987377056042</v>
+        <v>26.87987521833361</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +720,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.08327953209657373</v>
+        <v>0.08327953093920003</v>
       </c>
       <c r="C8">
-        <v>0.1868769675455193</v>
+        <v>0.186876953668574</v>
       </c>
       <c r="D8">
-        <v>0.3316250611356715</v>
+        <v>0.3316250264200705</v>
       </c>
     </row>
     <row r="9">
@@ -681,13 +736,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.2927818051681653</v>
+        <v>0.2927818026158576</v>
       </c>
       <c r="C9">
-        <v>0.4385840513935375</v>
+        <v>0.4385840343338146</v>
       </c>
       <c r="D9">
-        <v>0.5842498605956915</v>
+        <v>0.5842498289817237</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +759,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>5.051322571028439</v>
+        <v>5.051322294049788</v>
       </c>
       <c r="C11">
-        <v>5.909450289213249</v>
+        <v>5.909450055679693</v>
       </c>
       <c r="D11">
-        <v>6.867787569285466</v>
+        <v>6.867787399791214</v>
       </c>
     </row>
     <row r="12">
@@ -720,13 +775,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.04522646589588739</v>
+        <v>0.04522646809648333</v>
       </c>
       <c r="C12">
-        <v>0.1072662800949391</v>
+        <v>0.1072663177646837</v>
       </c>
       <c r="D12">
-        <v>0.1956342562261551</v>
+        <v>0.1956343536194577</v>
       </c>
     </row>
     <row r="13">
@@ -736,13 +791,68 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.2161158417986398</v>
+        <v>0.2161158490283523</v>
       </c>
       <c r="C13">
-        <v>0.3328295567967242</v>
+        <v>0.3328296182750619</v>
       </c>
       <c r="D13">
-        <v>0.4494824387074577</v>
+        <v>0.4494825546923926</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Speed meta analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mean (km/day)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>3.362856235691671</v>
+      </c>
+      <c r="C15">
+        <v>3.806741249265726</v>
+      </c>
+      <c r="D15">
+        <v>4.290008097159491</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CoV² (RVAR)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.02098895657273051</v>
+      </c>
+      <c r="C16">
+        <v>0.0578806186685388</v>
+      </c>
+      <c r="D16">
+        <v>0.1131540085843296</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CoV  (RSTD)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.1479196194664224</v>
+      </c>
+      <c r="C17">
+        <v>0.2456387839265089</v>
+      </c>
+      <c r="D17">
+        <v>0.3434514295130752</v>
       </c>
     </row>
   </sheetData>
